--- a/004/Table4.xlsx
+++ b/004/Table4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="範例1_1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>O1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,42 @@
     <t>M1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -272,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -375,13 +411,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -422,6 +495,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:BA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5:BA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1349,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L4:CL29"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF35" sqref="AF35"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI40" sqref="AI40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1361,12 +1500,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="40"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -1444,10 +1583,10 @@
       <c r="CL4" s="9"/>
     </row>
     <row r="5" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1525,61 +1664,73 @@
       <c r="CL5" s="9"/>
     </row>
     <row r="6" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L6" s="19"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="21"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
+      <c r="V6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="25"/>
+      <c r="X6" s="26"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
+      <c r="AC6" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="32"/>
       <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9"/>
-      <c r="BL6" s="9"/>
-      <c r="BM6" s="9"/>
-      <c r="BN6" s="9"/>
+      <c r="AR6" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="28"/>
+      <c r="AX6" s="28"/>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="28"/>
+      <c r="BA6" s="29"/>
+      <c r="BB6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="20"/>
+      <c r="BL6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM6" s="22"/>
+      <c r="BN6" s="23"/>
       <c r="BO6" s="9"/>
       <c r="BP6" s="9"/>
       <c r="BQ6" s="9"/>
@@ -1606,10 +1757,10 @@
       <c r="CL6" s="9"/>
     </row>
     <row r="7" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
       <c r="P7" s="9">
         <v>1</v>
       </c>
@@ -1837,12 +1988,12 @@
       </c>
     </row>
     <row r="8" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -1920,10 +2071,10 @@
       <c r="CL8" s="9"/>
     </row>
     <row r="9" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -2001,38 +2152,50 @@
       <c r="CL9" s="9"/>
     </row>
     <row r="10" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="23"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
+      <c r="AQ10" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="AR10" s="9"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
@@ -2082,10 +2245,10 @@
       <c r="CL10" s="9"/>
     </row>
     <row r="11" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L11" s="22"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
       <c r="P11" s="9">
         <v>1</v>
       </c>
@@ -2313,12 +2476,12 @@
       </c>
     </row>
     <row r="12" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -2396,10 +2559,10 @@
       <c r="CL12" s="9"/>
     </row>
     <row r="13" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="43"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -2477,37 +2640,47 @@
       <c r="CL13" s="9"/>
     </row>
     <row r="14" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
+      <c r="X14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="35"/>
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="9"/>
@@ -2523,7 +2696,9 @@
       <c r="BC14" s="9"/>
       <c r="BD14" s="9"/>
       <c r="BE14" s="9"/>
-      <c r="BF14" s="9"/>
+      <c r="BF14" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="BG14" s="9"/>
       <c r="BH14" s="9"/>
       <c r="BI14" s="9"/>
@@ -2558,10 +2733,10 @@
       <c r="CL14" s="9"/>
     </row>
     <row r="15" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="46"/>
       <c r="P15" s="9">
         <v>1</v>
       </c>
@@ -2789,12 +2964,12 @@
       </c>
     </row>
     <row r="16" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -2872,10 +3047,10 @@
       <c r="CL16" s="9"/>
     </row>
     <row r="17" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="43"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -2953,19 +3128,21 @@
       <c r="CL17" s="9"/>
     </row>
     <row r="18" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L18" s="19"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="43"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
+      <c r="U18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="32"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -2973,9 +3150,11 @@
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
+      <c r="AF18" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="29"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
@@ -2984,16 +3163,20 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="9"/>
-      <c r="AT18" s="9"/>
-      <c r="AU18" s="9"/>
-      <c r="AV18" s="9"/>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="9"/>
+      <c r="AQ18" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="25"/>
+      <c r="AW18" s="25"/>
+      <c r="AX18" s="25"/>
+      <c r="AY18" s="25"/>
+      <c r="AZ18" s="26"/>
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
       <c r="BC18" s="9"/>
@@ -3005,11 +3188,15 @@
       <c r="BI18" s="9"/>
       <c r="BJ18" s="9"/>
       <c r="BK18" s="9"/>
-      <c r="BL18" s="9"/>
-      <c r="BM18" s="9"/>
-      <c r="BN18" s="9"/>
-      <c r="BO18" s="9"/>
-      <c r="BP18" s="9"/>
+      <c r="BL18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM18" s="19"/>
+      <c r="BN18" s="19"/>
+      <c r="BO18" s="20"/>
+      <c r="BP18" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="BQ18" s="9"/>
       <c r="BR18" s="9"/>
       <c r="BS18" s="9"/>
@@ -3034,10 +3221,10 @@
       <c r="CL18" s="9"/>
     </row>
     <row r="19" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L19" s="22"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
       <c r="P19" s="9">
         <v>1</v>
       </c>
@@ -3265,12 +3452,12 @@
       </c>
     </row>
     <row r="20" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="18"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="40"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -3348,10 +3535,10 @@
       <c r="CL20" s="9"/>
     </row>
     <row r="21" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="43"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -3429,10 +3616,10 @@
       <c r="CL21" s="9"/>
     </row>
     <row r="22" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="21"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="43"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -3446,48 +3633,60 @@
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
+      <c r="AC22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="20"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
-      <c r="BG22" s="9"/>
-      <c r="BH22" s="9"/>
-      <c r="BI22" s="9"/>
-      <c r="BJ22" s="9"/>
-      <c r="BK22" s="9"/>
-      <c r="BL22" s="9"/>
-      <c r="BM22" s="9"/>
-      <c r="BN22" s="9"/>
-      <c r="BO22" s="9"/>
-      <c r="BP22" s="9"/>
-      <c r="BQ22" s="9"/>
-      <c r="BR22" s="9"/>
+      <c r="AO22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="23"/>
+      <c r="AT22" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU22" s="34"/>
+      <c r="AV22" s="34"/>
+      <c r="AW22" s="34"/>
+      <c r="AX22" s="34"/>
+      <c r="AY22" s="34"/>
+      <c r="AZ22" s="34"/>
+      <c r="BA22" s="35"/>
+      <c r="BB22" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC22" s="28"/>
+      <c r="BD22" s="28"/>
+      <c r="BE22" s="29"/>
+      <c r="BF22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG22" s="31"/>
+      <c r="BH22" s="31"/>
+      <c r="BI22" s="31"/>
+      <c r="BJ22" s="31"/>
+      <c r="BK22" s="31"/>
+      <c r="BL22" s="32"/>
+      <c r="BM22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN22" s="25"/>
+      <c r="BO22" s="25"/>
+      <c r="BP22" s="25"/>
+      <c r="BQ22" s="25"/>
+      <c r="BR22" s="26"/>
       <c r="BS22" s="9"/>
       <c r="BT22" s="9"/>
       <c r="BU22" s="9"/>
@@ -3510,10 +3709,10 @@
       <c r="CL22" s="9"/>
     </row>
     <row r="23" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L23" s="22"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="46"/>
       <c r="P23" s="9">
         <v>1</v>
       </c>
@@ -3741,12 +3940,12 @@
       </c>
     </row>
     <row r="24" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="18"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="40"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -3824,10 +4023,10 @@
       <c r="CL24" s="9"/>
     </row>
     <row r="25" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="43"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -3905,10 +4104,10 @@
       <c r="CL25" s="9"/>
     </row>
     <row r="26" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="21"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="43"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -3918,51 +4117,63 @@
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
+      <c r="Y26" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="32"/>
       <c r="AG26" s="9"/>
       <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
-      <c r="AU26" s="9"/>
-      <c r="AV26" s="9"/>
-      <c r="AW26" s="9"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
-      <c r="BA26" s="9"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-      <c r="BF26" s="9"/>
-      <c r="BG26" s="9"/>
-      <c r="BH26" s="9"/>
-      <c r="BI26" s="9"/>
-      <c r="BJ26" s="9"/>
-      <c r="BK26" s="9"/>
-      <c r="BL26" s="9"/>
-      <c r="BM26" s="9"/>
-      <c r="BN26" s="9"/>
-      <c r="BO26" s="9"/>
-      <c r="BP26" s="9"/>
-      <c r="BQ26" s="9"/>
+      <c r="AI26" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="29"/>
+      <c r="AR26" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="20"/>
+      <c r="BB26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC26" s="22"/>
+      <c r="BD26" s="22"/>
+      <c r="BE26" s="23"/>
+      <c r="BF26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG26" s="25"/>
+      <c r="BH26" s="26"/>
+      <c r="BI26" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ26" s="34"/>
+      <c r="BK26" s="34"/>
+      <c r="BL26" s="34"/>
+      <c r="BM26" s="34"/>
+      <c r="BN26" s="34"/>
+      <c r="BO26" s="34"/>
+      <c r="BP26" s="34"/>
+      <c r="BQ26" s="35"/>
       <c r="BR26" s="9"/>
       <c r="BS26" s="9"/>
       <c r="BT26" s="9"/>
@@ -3986,10 +4197,10 @@
       <c r="CL26" s="9"/>
     </row>
     <row r="27" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L27" s="22"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
       <c r="P27" s="9">
         <v>1</v>
       </c>
@@ -4217,39 +4428,39 @@
       </c>
     </row>
     <row r="29" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="Q29" s="25" t="s">
+      <c r="Q29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="26" t="s">
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="27" t="s">
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="28" t="s">
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="14" t="s">
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="15" t="s">
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="44">
     <mergeCell ref="L16:O19"/>
     <mergeCell ref="L20:O23"/>
     <mergeCell ref="L4:O7"/>
@@ -4262,6 +4473,38 @@
     <mergeCell ref="T29:V29"/>
     <mergeCell ref="W29:Y29"/>
     <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="AC14:AK14"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="AH6:AP6"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AL14:AP14"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="AF10:AK10"/>
+    <mergeCell ref="P10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC22:AL22"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="AI26:AQ26"/>
+    <mergeCell ref="AQ18:AS18"/>
+    <mergeCell ref="AR26:BA26"/>
+    <mergeCell ref="AO22:AS22"/>
+    <mergeCell ref="AT22:BA22"/>
+    <mergeCell ref="BB6:BK6"/>
+    <mergeCell ref="BL18:BO18"/>
+    <mergeCell ref="BB26:BE26"/>
+    <mergeCell ref="AT18:AZ18"/>
+    <mergeCell ref="BL6:BN6"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BB22:BE22"/>
+    <mergeCell ref="BF22:BL22"/>
+    <mergeCell ref="BF26:BH26"/>
+    <mergeCell ref="BM22:BR22"/>
+    <mergeCell ref="BI26:BQ26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4271,10 +4514,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:AM12"/>
+  <dimension ref="D3:AM13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:AM8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4288,113 +4531,113 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="4:39" x14ac:dyDescent="0.3">
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="11">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="I4" s="11">
+        <v>6</v>
+      </c>
+      <c r="J4" s="11">
+        <v>5</v>
+      </c>
+      <c r="K4" s="11">
+        <v>4</v>
+      </c>
+      <c r="L4" s="11">
+        <v>6</v>
+      </c>
+      <c r="M4" s="11">
+        <v>3</v>
+      </c>
+      <c r="N4" s="11">
+        <v>6</v>
+      </c>
+      <c r="O4" s="11">
+        <v>4</v>
+      </c>
+      <c r="P4" s="11">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="Q4" s="11">
         <v>3</v>
       </c>
-      <c r="I4">
+      <c r="R4" s="11">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="S4" s="11">
         <v>3</v>
       </c>
-      <c r="K4">
+      <c r="T4" s="11">
+        <v>1</v>
+      </c>
+      <c r="U4" s="11">
+        <v>3</v>
+      </c>
+      <c r="V4" s="11">
+        <v>1</v>
+      </c>
+      <c r="W4" s="11">
+        <v>2</v>
+      </c>
+      <c r="X4" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="11">
         <v>4</v>
       </c>
-      <c r="L4" s="1">
+      <c r="AA4" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="11">
         <v>1</v>
       </c>
-      <c r="M4" s="1">
+      <c r="AE4" s="11">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="11">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="11">
         <v>4</v>
       </c>
-      <c r="N4" s="1">
-        <v>2</v>
-      </c>
-      <c r="O4" s="1">
-        <v>3</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <v>5</v>
-      </c>
-      <c r="S4">
-        <v>5</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>4</v>
-      </c>
-      <c r="Y4">
-        <v>5</v>
-      </c>
-      <c r="Z4">
-        <v>3</v>
-      </c>
-      <c r="AA4">
-        <v>5</v>
-      </c>
-      <c r="AB4">
-        <v>2</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>4</v>
-      </c>
-      <c r="AF4">
-        <v>2</v>
-      </c>
-      <c r="AG4">
-        <v>2</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>5</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>3</v>
-      </c>
-      <c r="AM4">
-        <v>1</v>
+      <c r="AM4" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="4:39" x14ac:dyDescent="0.3">
@@ -4406,14 +4649,167 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="4:39" x14ac:dyDescent="0.3">
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="D6">
+        <f>D4-1</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:AM6" si="0">E4-1</f>
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="4:39" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -4423,151 +4819,37 @@
     </row>
     <row r="8" spans="4:39" x14ac:dyDescent="0.3">
       <c r="D8">
-        <f>D4+1</f>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <f t="shared" ref="E8:AM8" si="0">E4+1</f>
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:39" x14ac:dyDescent="0.3">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AL8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AM8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="4:39" x14ac:dyDescent="0.3">
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -4576,6 +4858,21 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="4:39" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -4584,6 +4881,21 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="4:39" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4592,6 +4904,21 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="4:39" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -4599,6 +4926,11 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
+    <row r="13" spans="4:39" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
